--- a/部品リスト.xlsx
+++ b/部品リスト.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>TACOpi 3 GTR 部品表</t>
     <rPh sb="13" eb="16">
@@ -514,6 +514,43 @@
     <rPh sb="8" eb="10">
       <t>シヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oリングに塗布。Oリングと接合面は常に清潔に。</t>
+    <rPh sb="5" eb="7">
+      <t>トフ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>セツゴウメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信越化学工業</t>
+    <rPh sb="0" eb="2">
+      <t>シンエツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カガク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オイルコンパウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HIVAC-G, 50 g</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -856,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1168,24 +1205,27 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1196,15 +1236,29 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>57</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>58</v>
       </c>
     </row>

--- a/部品リスト.xlsx
+++ b/部品リスト.xlsx
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１３FM28IR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タムロン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -364,28 +360,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カメラに取り付ける場合、カメラ筐体を削る必要がある。</t>
-    <rPh sb="4" eb="5">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ケズ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>廣杉計器</t>
     <rPh sb="0" eb="1">
       <t>ヒロ</t>
@@ -551,6 +525,50 @@
   </si>
   <si>
     <t>HIVAC-G, 50 g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13FM28IR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広角視野が必要な場合、付属レンズと交換する。取り付けの際にカメラ筐体を削る必要がある。</t>
+    <rPh sb="0" eb="2">
+      <t>コウカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヤ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キョウタイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ケズ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -895,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -905,7 +923,7 @@
     <col min="2" max="2" width="28.6328125" customWidth="1"/>
     <col min="3" max="3" width="17.6328125" customWidth="1"/>
     <col min="4" max="4" width="15.26953125" customWidth="1"/>
-    <col min="5" max="5" width="46.54296875" customWidth="1"/>
+    <col min="5" max="5" width="79.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -921,7 +939,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -949,16 +967,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -966,145 +984,145 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1112,10 +1130,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1123,143 +1141,143 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
         <v>51</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
         <v>46</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>42</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
